--- a/src/test/resources/data/TestData.xlsx
+++ b/src/test/resources/data/TestData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aadhi\IdeaProjects\TestNGFrameWork\src\test\resources\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aadhi\IdeaProjects\TestNgLearning\src\test\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D44695F7-4D34-441C-88DA-14AC097BBEF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5DC24C8-65FE-4754-AF82-16755A244E08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8F268A49-0942-4037-863E-3B769175B8DC}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>ReadDataSet1</t>
   </si>
@@ -52,13 +52,16 @@
   </si>
   <si>
     <t>shabeer</t>
+  </si>
+  <si>
+    <t>aadhi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -66,19 +69,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="9.8000000000000007"/>
-      <color rgb="FF000000"/>
-      <name val="JetBrains Mono"/>
-      <family val="3"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -93,12 +102,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -413,63 +421,74 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98D3C2E4-A29F-4189-AF7B-6A2BE394D2D4}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="17.33203125" customWidth="1"/>
     <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
       <c r="B3">
         <v>21</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="1">
         <v>44191</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>26</v>
+      </c>
+      <c r="C4" s="1">
+        <v>34162</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B7">
+      <c r="B8">
         <v>26</v>
       </c>
     </row>
